--- a/data/pca/factorExposure/factorExposure_2014-08-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.009473323971145024</v>
+        <v>0.02024014108565231</v>
       </c>
       <c r="C2">
-        <v>0.122090149496682</v>
+        <v>0.06730926841919788</v>
       </c>
       <c r="D2">
-        <v>0.02483263332254877</v>
+        <v>-0.03105501125185272</v>
       </c>
       <c r="E2">
-        <v>-0.2192836271086056</v>
+        <v>0.01226844426049318</v>
       </c>
       <c r="F2">
-        <v>-0.05497403525110813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04155006536233759</v>
+      </c>
+      <c r="G2">
+        <v>0.1578631701086061</v>
+      </c>
+      <c r="H2">
+        <v>-0.03350616793654734</v>
+      </c>
+      <c r="I2">
+        <v>0.0265684905695581</v>
+      </c>
+      <c r="J2">
+        <v>0.1214733922515093</v>
+      </c>
+      <c r="K2">
+        <v>0.03416100564019961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01374647380957325</v>
+        <v>0.01970803130966944</v>
       </c>
       <c r="C4">
-        <v>0.1722206138145135</v>
+        <v>0.1424615543904766</v>
       </c>
       <c r="D4">
-        <v>0.04372098807631752</v>
+        <v>-0.06583873597846737</v>
       </c>
       <c r="E4">
-        <v>-0.06434893804485196</v>
+        <v>0.005066365651873799</v>
       </c>
       <c r="F4">
-        <v>0.08748782713153863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06438787440276049</v>
+      </c>
+      <c r="G4">
+        <v>0.03111621547244512</v>
+      </c>
+      <c r="H4">
+        <v>0.003699961868570666</v>
+      </c>
+      <c r="I4">
+        <v>-0.04873081247652822</v>
+      </c>
+      <c r="J4">
+        <v>0.08985448188932629</v>
+      </c>
+      <c r="K4">
+        <v>-0.01587964150614332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03466065252241722</v>
+        <v>0.04068472003813576</v>
       </c>
       <c r="C6">
-        <v>0.07652534840988154</v>
+        <v>0.08524208721463339</v>
       </c>
       <c r="D6">
-        <v>0.05897829034757019</v>
+        <v>-0.02949154539770984</v>
       </c>
       <c r="E6">
-        <v>-0.06752605164239357</v>
+        <v>-0.02456597685239631</v>
       </c>
       <c r="F6">
-        <v>0.003280327488657238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02106240127647536</v>
+      </c>
+      <c r="G6">
+        <v>0.05000881423274234</v>
+      </c>
+      <c r="H6">
+        <v>0.04230003838967478</v>
+      </c>
+      <c r="I6">
+        <v>-0.06007854774530204</v>
+      </c>
+      <c r="J6">
+        <v>-0.0160886053811371</v>
+      </c>
+      <c r="K6">
+        <v>0.04018805935096649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.021150233967115</v>
+        <v>0.01907295282946987</v>
       </c>
       <c r="C7">
-        <v>0.08382475410192497</v>
+        <v>0.07151094061340041</v>
       </c>
       <c r="D7">
-        <v>0.05038576443305735</v>
+        <v>-0.03322597244319431</v>
       </c>
       <c r="E7">
-        <v>-0.02025659748806321</v>
+        <v>-0.004436768767322833</v>
       </c>
       <c r="F7">
-        <v>0.002408710214980615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01335431938914433</v>
+      </c>
+      <c r="G7">
+        <v>-0.009614268712644418</v>
+      </c>
+      <c r="H7">
+        <v>0.01397512554126826</v>
+      </c>
+      <c r="I7">
+        <v>-0.05552192150420435</v>
+      </c>
+      <c r="J7">
+        <v>0.09885639377985037</v>
+      </c>
+      <c r="K7">
+        <v>0.0251775178724647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.009456098329240234</v>
+        <v>0.001843199495725373</v>
       </c>
       <c r="C8">
-        <v>0.07215464618767406</v>
+        <v>0.061615278660222</v>
       </c>
       <c r="D8">
-        <v>0.03448236408144661</v>
+        <v>-0.04710186660031805</v>
       </c>
       <c r="E8">
-        <v>-0.07030904014878706</v>
+        <v>-0.03650350077126197</v>
       </c>
       <c r="F8">
-        <v>0.02158251197588921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0274164502920738</v>
+      </c>
+      <c r="G8">
+        <v>0.06018347208510124</v>
+      </c>
+      <c r="H8">
+        <v>-0.01706287838710359</v>
+      </c>
+      <c r="I8">
+        <v>-0.05030363078500082</v>
+      </c>
+      <c r="J8">
+        <v>0.01132633014799451</v>
+      </c>
+      <c r="K8">
+        <v>-0.01034178623068471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.008521409860288836</v>
+        <v>0.01318402468850936</v>
       </c>
       <c r="C9">
-        <v>0.1225271528018358</v>
+        <v>0.1001061502401003</v>
       </c>
       <c r="D9">
-        <v>0.05326323592225963</v>
+        <v>-0.04190581235783931</v>
       </c>
       <c r="E9">
-        <v>-0.01474648605758314</v>
+        <v>0.02564259657799458</v>
       </c>
       <c r="F9">
-        <v>0.02368127226084646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.03286056925234678</v>
+      </c>
+      <c r="G9">
+        <v>0.02232158770583755</v>
+      </c>
+      <c r="H9">
+        <v>-0.01602145623823147</v>
+      </c>
+      <c r="I9">
+        <v>-0.05349009652695502</v>
+      </c>
+      <c r="J9">
+        <v>0.09586033192284546</v>
+      </c>
+      <c r="K9">
+        <v>0.01233851879320683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.253600620164046</v>
+        <v>0.2458029955475349</v>
       </c>
       <c r="C10">
-        <v>-0.07627755386166542</v>
+        <v>-0.09342425528657292</v>
       </c>
       <c r="D10">
-        <v>-0.02693779596971074</v>
+        <v>0.008770056647431863</v>
       </c>
       <c r="E10">
-        <v>0.03573453538364807</v>
+        <v>-0.05920296369829155</v>
       </c>
       <c r="F10">
-        <v>0.03199263668269552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01128353948792623</v>
+      </c>
+      <c r="G10">
+        <v>0.01781857627878571</v>
+      </c>
+      <c r="H10">
+        <v>0.02732509367298003</v>
+      </c>
+      <c r="I10">
+        <v>-0.04479593748618376</v>
+      </c>
+      <c r="J10">
+        <v>0.01692680148640147</v>
+      </c>
+      <c r="K10">
+        <v>-0.1360350731331497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.006096571254402245</v>
+        <v>0.01742656605405311</v>
       </c>
       <c r="C11">
-        <v>0.0703158703725337</v>
+        <v>0.07908777766692722</v>
       </c>
       <c r="D11">
-        <v>0.03305399661917241</v>
+        <v>-0.0413075917418988</v>
       </c>
       <c r="E11">
-        <v>0.01880648255001836</v>
+        <v>0.01489687827369658</v>
       </c>
       <c r="F11">
-        <v>0.01494513665857933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.003716503710235602</v>
+      </c>
+      <c r="G11">
+        <v>-0.01074377901712894</v>
+      </c>
+      <c r="H11">
+        <v>-0.003974603862258693</v>
+      </c>
+      <c r="I11">
+        <v>-0.02373696829477242</v>
+      </c>
+      <c r="J11">
+        <v>0.02621285057376224</v>
+      </c>
+      <c r="K11">
+        <v>0.02972557406792174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.005516973209982295</v>
+        <v>0.01698470921897495</v>
       </c>
       <c r="C12">
-        <v>0.0488071717634434</v>
+        <v>0.05336819196684774</v>
       </c>
       <c r="D12">
-        <v>0.03221588192121861</v>
+        <v>-0.02754919872857656</v>
       </c>
       <c r="E12">
-        <v>0.0187171635665249</v>
+        <v>0.01142163828236202</v>
       </c>
       <c r="F12">
-        <v>-0.01035332054376673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01537842694009469</v>
+      </c>
+      <c r="G12">
+        <v>0.00308148868522201</v>
+      </c>
+      <c r="H12">
+        <v>0.01312178262328856</v>
+      </c>
+      <c r="I12">
+        <v>-0.03112975154434314</v>
+      </c>
+      <c r="J12">
+        <v>0.02023570977965547</v>
+      </c>
+      <c r="K12">
+        <v>0.01102097270607692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01149870837429108</v>
+        <v>0.006306618997050526</v>
       </c>
       <c r="C13">
-        <v>0.1239098774388457</v>
+        <v>0.1086363982814113</v>
       </c>
       <c r="D13">
-        <v>0.0711155475583161</v>
+        <v>-0.04454939923615393</v>
       </c>
       <c r="E13">
-        <v>-0.04419821817848348</v>
+        <v>0.01037041397084029</v>
       </c>
       <c r="F13">
-        <v>-0.05959729108823106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01645238453266995</v>
+      </c>
+      <c r="G13">
+        <v>0.1617318420854697</v>
+      </c>
+      <c r="H13">
+        <v>0.08984300801108054</v>
+      </c>
+      <c r="I13">
+        <v>-0.01549322596122949</v>
+      </c>
+      <c r="J13">
+        <v>0.2147991132151442</v>
+      </c>
+      <c r="K13">
+        <v>-0.1381936680124821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01109165595527018</v>
+        <v>0.02116673535882822</v>
       </c>
       <c r="C14">
-        <v>0.07908370165565019</v>
+        <v>0.07322390411534677</v>
       </c>
       <c r="D14">
-        <v>0.04536338931197884</v>
+        <v>-0.0491763310532357</v>
       </c>
       <c r="E14">
-        <v>-0.02503723413241118</v>
+        <v>-0.004835153877831073</v>
       </c>
       <c r="F14">
-        <v>-0.03094837584961735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02802793942922985</v>
+      </c>
+      <c r="G14">
+        <v>0.0294552050404711</v>
+      </c>
+      <c r="H14">
+        <v>0.05002304757371158</v>
+      </c>
+      <c r="I14">
+        <v>-0.1423270415269791</v>
+      </c>
+      <c r="J14">
+        <v>0.1500044854375439</v>
+      </c>
+      <c r="K14">
+        <v>0.03553946614086688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.002765080836038506</v>
+        <v>0.002745307666123033</v>
       </c>
       <c r="C15">
-        <v>0.07995541174695597</v>
+        <v>0.07240767797918617</v>
       </c>
       <c r="D15">
-        <v>0.02721704487257556</v>
+        <v>-0.0326325762791787</v>
       </c>
       <c r="E15">
-        <v>-0.03027337553605496</v>
+        <v>-0.002319667388330462</v>
       </c>
       <c r="F15">
-        <v>0.01363294837620987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03385752048601871</v>
+      </c>
+      <c r="G15">
+        <v>0.01455444173508336</v>
+      </c>
+      <c r="H15">
+        <v>0.01066103625791507</v>
+      </c>
+      <c r="I15">
+        <v>-0.06220576198739679</v>
+      </c>
+      <c r="J15">
+        <v>0.0573463685228625</v>
+      </c>
+      <c r="K15">
+        <v>0.03236301505953743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007767060776615136</v>
+        <v>0.01649359698558431</v>
       </c>
       <c r="C16">
-        <v>0.05678469353670029</v>
+        <v>0.060662941983594</v>
       </c>
       <c r="D16">
-        <v>0.02774447844982968</v>
+        <v>-0.0274405798728974</v>
       </c>
       <c r="E16">
-        <v>0.01548731336913598</v>
+        <v>0.01092533175634146</v>
       </c>
       <c r="F16">
-        <v>0.000890348091405609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4.671465722035434e-05</v>
+      </c>
+      <c r="G16">
+        <v>-0.006804930368384968</v>
+      </c>
+      <c r="H16">
+        <v>-0.0003139095127503735</v>
+      </c>
+      <c r="I16">
+        <v>-0.01513158748046892</v>
+      </c>
+      <c r="J16">
+        <v>0.01789656317311809</v>
+      </c>
+      <c r="K16">
+        <v>0.02006487344392904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01142562297894915</v>
+        <v>0.0149024979151137</v>
       </c>
       <c r="C20">
-        <v>0.09497197328855561</v>
+        <v>0.08458603992144141</v>
       </c>
       <c r="D20">
-        <v>0.0364428230324208</v>
+        <v>-0.02733032942199328</v>
       </c>
       <c r="E20">
-        <v>0.03560097159985856</v>
+        <v>-0.00862383659246369</v>
       </c>
       <c r="F20">
-        <v>0.004522642755333931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01568155320746994</v>
+      </c>
+      <c r="G20">
+        <v>-0.01874202991067667</v>
+      </c>
+      <c r="H20">
+        <v>0.01845422081033365</v>
+      </c>
+      <c r="I20">
+        <v>-0.06581925647730341</v>
+      </c>
+      <c r="J20">
+        <v>0.05245760653122854</v>
+      </c>
+      <c r="K20">
+        <v>0.01652499721841061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.006383524361254982</v>
+        <v>0.01364978330766255</v>
       </c>
       <c r="C21">
-        <v>0.08154219515295869</v>
+        <v>0.06722497701219346</v>
       </c>
       <c r="D21">
-        <v>-0.007083597520183861</v>
+        <v>-0.01804458834276575</v>
       </c>
       <c r="E21">
-        <v>-0.04693090595586522</v>
+        <v>-0.01772048127831936</v>
       </c>
       <c r="F21">
-        <v>-0.07321716194281136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.05737228073029093</v>
+      </c>
+      <c r="G21">
+        <v>0.07349263122950225</v>
+      </c>
+      <c r="H21">
+        <v>-0.002966290864232994</v>
+      </c>
+      <c r="I21">
+        <v>-0.07980336960052586</v>
+      </c>
+      <c r="J21">
+        <v>0.1194974761055611</v>
+      </c>
+      <c r="K21">
+        <v>-0.009274083228106014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.006464627376524801</v>
+        <v>0.007681017726911163</v>
       </c>
       <c r="C22">
-        <v>0.2321166771038119</v>
+        <v>0.1692751822961465</v>
       </c>
       <c r="D22">
-        <v>-0.0750494857981218</v>
+        <v>-0.02025281799914185</v>
       </c>
       <c r="E22">
-        <v>-0.3409434883017071</v>
+        <v>-0.02714221815073962</v>
       </c>
       <c r="F22">
-        <v>0.25045507320161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3654470588150541</v>
+      </c>
+      <c r="G22">
+        <v>0.3577561998266654</v>
+      </c>
+      <c r="H22">
+        <v>0.06874916744715988</v>
+      </c>
+      <c r="I22">
+        <v>0.2697873296556252</v>
+      </c>
+      <c r="J22">
+        <v>-0.2186657704030964</v>
+      </c>
+      <c r="K22">
+        <v>0.04239396085678382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.007402934183105125</v>
+        <v>0.01280222759585609</v>
       </c>
       <c r="C23">
-        <v>0.2355849484258028</v>
+        <v>0.172552379494271</v>
       </c>
       <c r="D23">
-        <v>-0.07986493472630932</v>
+        <v>-0.01987784627936025</v>
       </c>
       <c r="E23">
-        <v>-0.3353025185325837</v>
+        <v>-0.02246948552791869</v>
       </c>
       <c r="F23">
-        <v>0.247377489499717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3553588590896223</v>
+      </c>
+      <c r="G23">
+        <v>0.3488498030594211</v>
+      </c>
+      <c r="H23">
+        <v>0.06490715390451922</v>
+      </c>
+      <c r="I23">
+        <v>0.2536520790218579</v>
+      </c>
+      <c r="J23">
+        <v>-0.2015089656000089</v>
+      </c>
+      <c r="K23">
+        <v>0.04630196646125596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005960709142789232</v>
+        <v>0.01713941139602216</v>
       </c>
       <c r="C24">
-        <v>0.06132307923105532</v>
+        <v>0.0637502579688838</v>
       </c>
       <c r="D24">
-        <v>0.04481161482386034</v>
+        <v>-0.04122455479376063</v>
       </c>
       <c r="E24">
-        <v>0.01244988593897351</v>
+        <v>0.01334506253764548</v>
       </c>
       <c r="F24">
-        <v>0.01024972038127245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003947437655074843</v>
+      </c>
+      <c r="G24">
+        <v>-0.006362366353775375</v>
+      </c>
+      <c r="H24">
+        <v>0.009037993042813693</v>
+      </c>
+      <c r="I24">
+        <v>-0.02891967370908091</v>
+      </c>
+      <c r="J24">
+        <v>0.03583476458405092</v>
+      </c>
+      <c r="K24">
+        <v>0.02227993988459326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.006354499191688091</v>
+        <v>0.0212572638387932</v>
       </c>
       <c r="C25">
-        <v>0.06748315511597626</v>
+        <v>0.06741953365735323</v>
       </c>
       <c r="D25">
-        <v>0.02177139214713681</v>
+        <v>-0.03385676624249595</v>
       </c>
       <c r="E25">
-        <v>0.01782956302662786</v>
+        <v>0.01740468687163453</v>
       </c>
       <c r="F25">
-        <v>0.00130995838326033</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.006526875128151574</v>
+      </c>
+      <c r="G25">
+        <v>-0.004401943255629742</v>
+      </c>
+      <c r="H25">
+        <v>0.0007967308346792217</v>
+      </c>
+      <c r="I25">
+        <v>-0.02604086951002828</v>
+      </c>
+      <c r="J25">
+        <v>0.03267389497475965</v>
+      </c>
+      <c r="K25">
+        <v>0.01289279980214323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01090912924945683</v>
+        <v>0.02143131154801368</v>
       </c>
       <c r="C26">
-        <v>0.04543521055974979</v>
+        <v>0.05352821346252719</v>
       </c>
       <c r="D26">
-        <v>0.07725302320350419</v>
+        <v>-0.06166661636123903</v>
       </c>
       <c r="E26">
-        <v>0.00982227842657063</v>
+        <v>0.0122922109713559</v>
       </c>
       <c r="F26">
-        <v>-0.03343304011707195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01005321348102981</v>
+      </c>
+      <c r="G26">
+        <v>-0.01005191208704365</v>
+      </c>
+      <c r="H26">
+        <v>-0.02655629245763277</v>
+      </c>
+      <c r="I26">
+        <v>-0.04778179907141131</v>
+      </c>
+      <c r="J26">
+        <v>0.110606460521163</v>
+      </c>
+      <c r="K26">
+        <v>0.05565611153431142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.348901421154758</v>
+        <v>0.3087032551207191</v>
       </c>
       <c r="C28">
-        <v>-0.09022345423264332</v>
+        <v>-0.1135656229658148</v>
       </c>
       <c r="D28">
-        <v>-0.02306545362438175</v>
+        <v>0.03468087039304653</v>
       </c>
       <c r="E28">
-        <v>0.04911842039035572</v>
+        <v>-0.01185384771806034</v>
       </c>
       <c r="F28">
-        <v>0.006249053557913764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01773867148671304</v>
+      </c>
+      <c r="G28">
+        <v>0.04617191190869169</v>
+      </c>
+      <c r="H28">
+        <v>-0.1213167785560028</v>
+      </c>
+      <c r="I28">
+        <v>0.000755468183318093</v>
+      </c>
+      <c r="J28">
+        <v>0.04009390397751705</v>
+      </c>
+      <c r="K28">
+        <v>-0.2118171592213342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.006140860040225256</v>
+        <v>0.01785137622041342</v>
       </c>
       <c r="C29">
-        <v>0.0852973663701241</v>
+        <v>0.08245858411538395</v>
       </c>
       <c r="D29">
-        <v>0.05159128707469549</v>
+        <v>-0.04967045899127309</v>
       </c>
       <c r="E29">
-        <v>-0.009100006200476175</v>
+        <v>0.01911480725441991</v>
       </c>
       <c r="F29">
-        <v>-0.02010188003540226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02647618198541243</v>
+      </c>
+      <c r="G29">
+        <v>0.02909520981530323</v>
+      </c>
+      <c r="H29">
+        <v>0.09145480948108908</v>
+      </c>
+      <c r="I29">
+        <v>-0.2001240278838535</v>
+      </c>
+      <c r="J29">
+        <v>0.2116645908026599</v>
+      </c>
+      <c r="K29">
+        <v>0.0252388369159332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02594821507913946</v>
+        <v>0.03506255726277072</v>
       </c>
       <c r="C30">
-        <v>0.1663861017704087</v>
+        <v>0.1411098736744451</v>
       </c>
       <c r="D30">
-        <v>0.06577954163904084</v>
+        <v>-0.05612069139474296</v>
       </c>
       <c r="E30">
-        <v>-0.04753578502563394</v>
+        <v>-0.01247410587465669</v>
       </c>
       <c r="F30">
-        <v>0.0324622891128826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04603217658990699</v>
+      </c>
+      <c r="G30">
+        <v>0.03594821098581466</v>
+      </c>
+      <c r="H30">
+        <v>0.01082951583412899</v>
+      </c>
+      <c r="I30">
+        <v>-0.04247248560593653</v>
+      </c>
+      <c r="J30">
+        <v>0.01802787825355869</v>
+      </c>
+      <c r="K30">
+        <v>0.04439998898614016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004057924616777988</v>
+        <v>0.01468169258583653</v>
       </c>
       <c r="C31">
-        <v>0.05199735811527706</v>
+        <v>0.07680602790310193</v>
       </c>
       <c r="D31">
-        <v>0.03218591279831708</v>
+        <v>-0.04274170373505755</v>
       </c>
       <c r="E31">
-        <v>0.02094809710620338</v>
+        <v>0.001152206891870108</v>
       </c>
       <c r="F31">
-        <v>-0.004574148648172588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.007129645989252308</v>
+      </c>
+      <c r="G31">
+        <v>0.003702021805004376</v>
+      </c>
+      <c r="H31">
+        <v>-0.03473379423467136</v>
+      </c>
+      <c r="I31">
+        <v>-0.0224234619039434</v>
+      </c>
+      <c r="J31">
+        <v>0.02510617351312304</v>
+      </c>
+      <c r="K31">
+        <v>0.01236191997189304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01715291782504364</v>
+        <v>0.02194514743412254</v>
       </c>
       <c r="C32">
-        <v>0.07433294179775006</v>
+        <v>0.05380624677056631</v>
       </c>
       <c r="D32">
-        <v>0.009951541191633348</v>
+        <v>-0.02774219397412953</v>
       </c>
       <c r="E32">
-        <v>-0.1507276645020308</v>
+        <v>0.02350570080588929</v>
       </c>
       <c r="F32">
-        <v>-0.01072003857421933</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01689434944831269</v>
+      </c>
+      <c r="G32">
+        <v>0.1175832446922261</v>
+      </c>
+      <c r="H32">
+        <v>0.04117149865847014</v>
+      </c>
+      <c r="I32">
+        <v>-0.07623816645725945</v>
+      </c>
+      <c r="J32">
+        <v>0.1735588310462391</v>
+      </c>
+      <c r="K32">
+        <v>-0.2343483223376919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.009840088424641241</v>
+        <v>0.0174499654340657</v>
       </c>
       <c r="C33">
-        <v>0.09608653534280136</v>
+        <v>0.1015250853847618</v>
       </c>
       <c r="D33">
-        <v>0.06105114220992161</v>
+        <v>-0.05273035656133725</v>
       </c>
       <c r="E33">
-        <v>-0.004929584363930502</v>
+        <v>-0.006214518261958182</v>
       </c>
       <c r="F33">
-        <v>0.005747766433119745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0216883851836351</v>
+      </c>
+      <c r="G33">
+        <v>0.01111321727019839</v>
+      </c>
+      <c r="H33">
+        <v>0.0151746250997116</v>
+      </c>
+      <c r="I33">
+        <v>-0.03347401209273339</v>
+      </c>
+      <c r="J33">
+        <v>0.05604612581374201</v>
+      </c>
+      <c r="K33">
+        <v>-0.01685359548766293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.003886532057514124</v>
+        <v>0.01717186852261555</v>
       </c>
       <c r="C34">
-        <v>0.05251175558732855</v>
+        <v>0.04993137581555707</v>
       </c>
       <c r="D34">
-        <v>0.02279689062733127</v>
+        <v>-0.0216968582379386</v>
       </c>
       <c r="E34">
-        <v>0.008329052518968072</v>
+        <v>0.01510638009840593</v>
       </c>
       <c r="F34">
-        <v>-0.01675806039738153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.00606406451244043</v>
+      </c>
+      <c r="G34">
+        <v>-0.006299811374813005</v>
+      </c>
+      <c r="H34">
+        <v>0.01479519584731711</v>
+      </c>
+      <c r="I34">
+        <v>-0.0293531362634852</v>
+      </c>
+      <c r="J34">
+        <v>-0.007006815777534834</v>
+      </c>
+      <c r="K34">
+        <v>0.01159920035364306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.00147992094160509</v>
+        <v>0.0104837235287975</v>
       </c>
       <c r="C35">
-        <v>0.03170958284359703</v>
+        <v>0.04661509643942244</v>
       </c>
       <c r="D35">
-        <v>0.01161507076150588</v>
+        <v>-0.02306264971702264</v>
       </c>
       <c r="E35">
-        <v>-0.004397190774024368</v>
+        <v>-0.005885479965351218</v>
       </c>
       <c r="F35">
-        <v>-0.005233486754923171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.002818709641607834</v>
+      </c>
+      <c r="G35">
+        <v>0.01388384643863524</v>
+      </c>
+      <c r="H35">
+        <v>0.02738173211767268</v>
+      </c>
+      <c r="I35">
+        <v>-0.1174944882690481</v>
+      </c>
+      <c r="J35">
+        <v>0.1065469985492879</v>
+      </c>
+      <c r="K35">
+        <v>0.003340771157465271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.008029058093525016</v>
+        <v>0.0136199351587144</v>
       </c>
       <c r="C36">
-        <v>0.0510871247879032</v>
+        <v>0.0457556684998072</v>
       </c>
       <c r="D36">
-        <v>0.05508986441660259</v>
+        <v>-0.0438032188776741</v>
       </c>
       <c r="E36">
-        <v>0.006510182465412528</v>
+        <v>-0.006435248622037489</v>
       </c>
       <c r="F36">
-        <v>-0.006238529196328346</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01444927927216556</v>
+      </c>
+      <c r="G36">
+        <v>0.01126977594002355</v>
+      </c>
+      <c r="H36">
+        <v>-0.02217052056872339</v>
+      </c>
+      <c r="I36">
+        <v>-0.03550602731636992</v>
+      </c>
+      <c r="J36">
+        <v>0.08226732899339201</v>
+      </c>
+      <c r="K36">
+        <v>0.01848486655410629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02939016560298352</v>
+        <v>0.01058854561911998</v>
       </c>
       <c r="C38">
-        <v>0.04512488165685943</v>
+        <v>0.05618851505801204</v>
       </c>
       <c r="D38">
-        <v>0.0348526979968164</v>
+        <v>-0.03766312093489782</v>
       </c>
       <c r="E38">
-        <v>0.0181096183639694</v>
+        <v>-0.04217270388372594</v>
       </c>
       <c r="F38">
-        <v>0.001459210279832376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.03017725867902425</v>
+      </c>
+      <c r="G38">
+        <v>-0.004672744038375866</v>
+      </c>
+      <c r="H38">
+        <v>0.005552059721981627</v>
+      </c>
+      <c r="I38">
+        <v>-0.04713440693838557</v>
+      </c>
+      <c r="J38">
+        <v>0.06547572993811968</v>
+      </c>
+      <c r="K38">
+        <v>-0.0671051194844049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.006128738567536521</v>
+        <v>0.02474181307138318</v>
       </c>
       <c r="C39">
-        <v>0.1296233215699883</v>
+        <v>0.1295853785800314</v>
       </c>
       <c r="D39">
-        <v>0.06259072552615363</v>
+        <v>-0.06116862865660379</v>
       </c>
       <c r="E39">
-        <v>0.005258732847350455</v>
+        <v>-0.006642170622273253</v>
       </c>
       <c r="F39">
-        <v>-0.01202947543690427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.009585941096652732</v>
+      </c>
+      <c r="G39">
+        <v>-0.001459640965903819</v>
+      </c>
+      <c r="H39">
+        <v>0.02778495341526622</v>
+      </c>
+      <c r="I39">
+        <v>-0.05514097612615967</v>
+      </c>
+      <c r="J39">
+        <v>0.01363604605989157</v>
+      </c>
+      <c r="K39">
+        <v>0.09186797616691129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.006434379596096496</v>
+        <v>0.0145519394183818</v>
       </c>
       <c r="C40">
-        <v>0.04438609131175414</v>
+        <v>0.05960265868311949</v>
       </c>
       <c r="D40">
-        <v>0.03498891149137458</v>
+        <v>-0.04383198060043673</v>
       </c>
       <c r="E40">
-        <v>-0.1069849964895258</v>
+        <v>0.001159763911511348</v>
       </c>
       <c r="F40">
-        <v>0.06573623508267064</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.006586155959574591</v>
+      </c>
+      <c r="G40">
+        <v>0.03308355660854842</v>
+      </c>
+      <c r="H40">
+        <v>0.1432124884848362</v>
+      </c>
+      <c r="I40">
+        <v>-0.04477096042327981</v>
+      </c>
+      <c r="J40">
+        <v>0.04193797481686659</v>
+      </c>
+      <c r="K40">
+        <v>0.03356113850390614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01049567515463219</v>
+        <v>0.02260506456623155</v>
       </c>
       <c r="C41">
-        <v>0.02842558583940019</v>
+        <v>0.04788461228565375</v>
       </c>
       <c r="D41">
-        <v>0.001731431875299885</v>
+        <v>-0.01607981396377299</v>
       </c>
       <c r="E41">
-        <v>0.01608351336672119</v>
+        <v>0.003169680871697749</v>
       </c>
       <c r="F41">
-        <v>-0.005878693604413759</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00726443617051964</v>
+      </c>
+      <c r="G41">
+        <v>-0.01232869956633646</v>
+      </c>
+      <c r="H41">
+        <v>-0.0126961755866785</v>
+      </c>
+      <c r="I41">
+        <v>-0.006168532427943687</v>
+      </c>
+      <c r="J41">
+        <v>0.02426241381122221</v>
+      </c>
+      <c r="K41">
+        <v>-0.02369998421363939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004113325151107394</v>
+        <v>0.01926225506140679</v>
       </c>
       <c r="C43">
-        <v>0.02984224518393618</v>
+        <v>0.04513157566769648</v>
       </c>
       <c r="D43">
-        <v>0.02539533572601952</v>
+        <v>-0.02948151367375249</v>
       </c>
       <c r="E43">
-        <v>0.007530333897851578</v>
+        <v>-0.001902451991346527</v>
       </c>
       <c r="F43">
-        <v>0.006001467995484928</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.006993108991293014</v>
+      </c>
+      <c r="G43">
+        <v>-0.01085573649336354</v>
+      </c>
+      <c r="H43">
+        <v>-0.004476280190719178</v>
+      </c>
+      <c r="I43">
+        <v>-0.01689769187881935</v>
+      </c>
+      <c r="J43">
+        <v>0.03061549362002773</v>
+      </c>
+      <c r="K43">
+        <v>0.00333458604287123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.0153868846171257</v>
+        <v>0.01765995138488349</v>
       </c>
       <c r="C44">
-        <v>0.1020197730645118</v>
+        <v>0.09732461126551584</v>
       </c>
       <c r="D44">
-        <v>0.04083808370075594</v>
+        <v>-0.05968379437724557</v>
       </c>
       <c r="E44">
-        <v>-0.03009374488351891</v>
+        <v>-0.02345664476865554</v>
       </c>
       <c r="F44">
-        <v>0.03953926128885743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0610014876419628</v>
+      </c>
+      <c r="G44">
+        <v>0.03451535196396342</v>
+      </c>
+      <c r="H44">
+        <v>0.03787864160640904</v>
+      </c>
+      <c r="I44">
+        <v>-0.0231920783882643</v>
+      </c>
+      <c r="J44">
+        <v>0.05168482468942958</v>
+      </c>
+      <c r="K44">
+        <v>0.05005663635303647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.00653922121455454</v>
+        <v>0.005142738251234828</v>
       </c>
       <c r="C46">
-        <v>0.0698539611532888</v>
+        <v>0.06654210252978628</v>
       </c>
       <c r="D46">
-        <v>0.05652450178289185</v>
+        <v>-0.02810646996371833</v>
       </c>
       <c r="E46">
-        <v>-0.01642527301168369</v>
+        <v>-0.01407924175777745</v>
       </c>
       <c r="F46">
-        <v>-0.01010484451027804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01109196009244123</v>
+      </c>
+      <c r="G46">
+        <v>0.001536381801966066</v>
+      </c>
+      <c r="H46">
+        <v>0.01668612020141929</v>
+      </c>
+      <c r="I46">
+        <v>-0.03958507790177016</v>
+      </c>
+      <c r="J46">
+        <v>0.09022485671339867</v>
+      </c>
+      <c r="K46">
+        <v>0.02147117767196719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.00898790174482229</v>
+        <v>0.02147169863676987</v>
       </c>
       <c r="C47">
-        <v>0.06074761330641507</v>
+        <v>0.07291110543985081</v>
       </c>
       <c r="D47">
-        <v>0.0449522450395844</v>
+        <v>-0.04810363217393489</v>
       </c>
       <c r="E47">
-        <v>0.03015114026651929</v>
+        <v>0.01988090647610702</v>
       </c>
       <c r="F47">
-        <v>-0.03929686444543963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.003018993609078507</v>
+      </c>
+      <c r="G47">
+        <v>-0.005802536095649413</v>
+      </c>
+      <c r="H47">
+        <v>-0.01581875760411449</v>
+      </c>
+      <c r="I47">
+        <v>-0.04089708795511759</v>
+      </c>
+      <c r="J47">
+        <v>0.06131658612357362</v>
+      </c>
+      <c r="K47">
+        <v>-0.0113779399094354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.008526113417632366</v>
+        <v>0.01513894161002563</v>
       </c>
       <c r="C48">
-        <v>0.0540641643831981</v>
+        <v>0.04540334438297032</v>
       </c>
       <c r="D48">
-        <v>0.06312572183438006</v>
+        <v>-0.05246755634899539</v>
       </c>
       <c r="E48">
-        <v>0.01587191912426391</v>
+        <v>0.01602252769509825</v>
       </c>
       <c r="F48">
-        <v>-0.005866160354960942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02779952965499501</v>
+      </c>
+      <c r="G48">
+        <v>0.007768562548947928</v>
+      </c>
+      <c r="H48">
+        <v>-0.02906109633293675</v>
+      </c>
+      <c r="I48">
+        <v>-0.05173697034313317</v>
+      </c>
+      <c r="J48">
+        <v>0.1129618976429136</v>
+      </c>
+      <c r="K48">
+        <v>0.03610218283440742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0226727193396662</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05055043599009534</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01297658073264892</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02972723203031383</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.03708677954086698</v>
+      </c>
+      <c r="G49">
+        <v>-0.06458312940323443</v>
+      </c>
+      <c r="H49">
+        <v>0.06306964076177657</v>
+      </c>
+      <c r="I49">
+        <v>-0.05558098193073877</v>
+      </c>
+      <c r="J49">
+        <v>-0.1082044272353196</v>
+      </c>
+      <c r="K49">
+        <v>0.04512603893720972</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.00320635371314405</v>
+        <v>0.01568659346568524</v>
       </c>
       <c r="C50">
-        <v>0.0597933717403739</v>
+        <v>0.07486097138913636</v>
       </c>
       <c r="D50">
-        <v>0.03006073684048436</v>
+        <v>-0.03292975865451442</v>
       </c>
       <c r="E50">
-        <v>-0.0008048166276713072</v>
+        <v>0.009702747006276479</v>
       </c>
       <c r="F50">
-        <v>0.0111312185628378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02198510128932895</v>
+      </c>
+      <c r="G50">
+        <v>0.00689669942513142</v>
+      </c>
+      <c r="H50">
+        <v>-0.01669298130735354</v>
+      </c>
+      <c r="I50">
+        <v>-0.05099627656726922</v>
+      </c>
+      <c r="J50">
+        <v>0.04144666219744789</v>
+      </c>
+      <c r="K50">
+        <v>-0.0498461880076886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.006199882586270291</v>
+        <v>-0.005076759320306112</v>
       </c>
       <c r="C51">
-        <v>0.07341945068392439</v>
+        <v>0.03515061628333117</v>
       </c>
       <c r="D51">
-        <v>0.0474447445739276</v>
+        <v>-0.02438918166674616</v>
       </c>
       <c r="E51">
-        <v>-0.03514385261486667</v>
+        <v>-0.02565171427319624</v>
       </c>
       <c r="F51">
-        <v>0.01362306915419766</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01017885798580008</v>
+      </c>
+      <c r="G51">
+        <v>0.02431600364463897</v>
+      </c>
+      <c r="H51">
+        <v>0.01048784026728838</v>
+      </c>
+      <c r="I51">
+        <v>-0.03817636878440157</v>
+      </c>
+      <c r="J51">
+        <v>0.104289371985637</v>
+      </c>
+      <c r="K51">
+        <v>0.01761280118200485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.0329658477065632</v>
+        <v>0.06100773144572672</v>
       </c>
       <c r="C53">
-        <v>0.103617365379368</v>
+        <v>0.1309109403633662</v>
       </c>
       <c r="D53">
-        <v>0.06071546322067656</v>
+        <v>-0.0581889015063985</v>
       </c>
       <c r="E53">
-        <v>0.1265043570436451</v>
+        <v>0.02651217316537572</v>
       </c>
       <c r="F53">
-        <v>-0.02392624349551765</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04929998375117321</v>
+      </c>
+      <c r="G53">
+        <v>-0.03831413955428099</v>
+      </c>
+      <c r="H53">
+        <v>-0.0854595402047279</v>
+      </c>
+      <c r="I53">
+        <v>0.02980503860815436</v>
+      </c>
+      <c r="J53">
+        <v>-0.02118723423396763</v>
+      </c>
+      <c r="K53">
+        <v>-0.02165937539657018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.002950011949028762</v>
+        <v>0.01666353102601922</v>
       </c>
       <c r="C54">
-        <v>0.07109641971886098</v>
+        <v>0.07070005413242542</v>
       </c>
       <c r="D54">
-        <v>0.01336367570332428</v>
+        <v>-0.01292886814877173</v>
       </c>
       <c r="E54">
-        <v>0.02122521075179929</v>
+        <v>0.01031186464468845</v>
       </c>
       <c r="F54">
-        <v>0.006850819763212056</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002413887614161968</v>
+      </c>
+      <c r="G54">
+        <v>-0.003212999787473981</v>
+      </c>
+      <c r="H54">
+        <v>0.0004842711756883733</v>
+      </c>
+      <c r="I54">
+        <v>-0.02673259334552675</v>
+      </c>
+      <c r="J54">
+        <v>0.05303553228330828</v>
+      </c>
+      <c r="K54">
+        <v>0.03113876126148402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01199818002415436</v>
+        <v>0.03088734683042099</v>
       </c>
       <c r="C55">
-        <v>0.06974623233658485</v>
+        <v>0.08149227081160164</v>
       </c>
       <c r="D55">
-        <v>0.05916348707146622</v>
+        <v>-0.05429273988808885</v>
       </c>
       <c r="E55">
-        <v>0.06249787321627293</v>
+        <v>0.02591821068430518</v>
       </c>
       <c r="F55">
-        <v>-0.02436897172514497</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02609140808014696</v>
+      </c>
+      <c r="G55">
+        <v>-0.03155653790553052</v>
+      </c>
+      <c r="H55">
+        <v>-0.03759498383859011</v>
+      </c>
+      <c r="I55">
+        <v>0.01411922517242465</v>
+      </c>
+      <c r="J55">
+        <v>0.002874271619919575</v>
+      </c>
+      <c r="K55">
+        <v>0.009148108995332568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01213488624392752</v>
+        <v>0.049689750709541</v>
       </c>
       <c r="C56">
-        <v>0.139852613869815</v>
+        <v>0.1514151497938065</v>
       </c>
       <c r="D56">
-        <v>0.06664675186209723</v>
+        <v>-0.08339037705303586</v>
       </c>
       <c r="E56">
-        <v>0.09370450803186454</v>
+        <v>0.05167792197278014</v>
       </c>
       <c r="F56">
-        <v>-0.03607426449475845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09392240564696272</v>
+      </c>
+      <c r="G56">
+        <v>-0.04650255081792316</v>
+      </c>
+      <c r="H56">
+        <v>-0.1542293729910356</v>
+      </c>
+      <c r="I56">
+        <v>0.03887530214803344</v>
+      </c>
+      <c r="J56">
+        <v>-0.04673059691022303</v>
+      </c>
+      <c r="K56">
+        <v>0.002298574461535097</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03068555096597336</v>
+        <v>0.01770856584620176</v>
       </c>
       <c r="C58">
-        <v>0.2806816916019582</v>
+        <v>0.1706406635367148</v>
       </c>
       <c r="D58">
-        <v>-0.0203102240059155</v>
+        <v>-0.04438048398005719</v>
       </c>
       <c r="E58">
-        <v>-0.1875090131128654</v>
+        <v>-0.1219308508573003</v>
       </c>
       <c r="F58">
-        <v>0.1817823051064921</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2199027907783082</v>
+      </c>
+      <c r="G58">
+        <v>0.2528888381049886</v>
+      </c>
+      <c r="H58">
+        <v>-0.07307743337064246</v>
+      </c>
+      <c r="I58">
+        <v>0.03432531415714103</v>
+      </c>
+      <c r="J58">
+        <v>0.1489120016730018</v>
+      </c>
+      <c r="K58">
+        <v>-0.1133377332719057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2910154063435929</v>
+        <v>0.2885323357153839</v>
       </c>
       <c r="C59">
-        <v>-0.005130989067750362</v>
+        <v>-0.05322684558605863</v>
       </c>
       <c r="D59">
-        <v>-0.005820515452711713</v>
+        <v>0.006370768648028926</v>
       </c>
       <c r="E59">
-        <v>-0.06052610749769889</v>
+        <v>-0.005606088724437058</v>
       </c>
       <c r="F59">
-        <v>-0.04557074458912159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01699240097675158</v>
+      </c>
+      <c r="G59">
+        <v>0.05534370064299125</v>
+      </c>
+      <c r="H59">
+        <v>-0.001581519822780591</v>
+      </c>
+      <c r="I59">
+        <v>0.02006132953618917</v>
+      </c>
+      <c r="J59">
+        <v>-0.007182501910624673</v>
+      </c>
+      <c r="K59">
+        <v>-0.02668011724074692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1268536291877286</v>
+        <v>0.1537235207565421</v>
       </c>
       <c r="C60">
-        <v>0.1463111274250528</v>
+        <v>0.1600067710494933</v>
       </c>
       <c r="D60">
-        <v>0.07885928490052585</v>
+        <v>-0.0391864375285626</v>
       </c>
       <c r="E60">
-        <v>0.1314168046546036</v>
+        <v>0.1123289921359803</v>
       </c>
       <c r="F60">
-        <v>-0.2328912422266921</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1065857388515437</v>
+      </c>
+      <c r="G60">
+        <v>-0.09870010827959853</v>
+      </c>
+      <c r="H60">
+        <v>0.277556231118481</v>
+      </c>
+      <c r="I60">
+        <v>0.143904898086504</v>
+      </c>
+      <c r="J60">
+        <v>-0.1150058519060255</v>
+      </c>
+      <c r="K60">
+        <v>0.02800478658461459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.00634503402389231</v>
+        <v>0.02469212530011481</v>
       </c>
       <c r="C61">
-        <v>0.08816383275291405</v>
+        <v>0.09835068819816417</v>
       </c>
       <c r="D61">
-        <v>0.07112052692661303</v>
+        <v>-0.05446418323316655</v>
       </c>
       <c r="E61">
-        <v>0.02942361432785788</v>
+        <v>0.009848917688762128</v>
       </c>
       <c r="F61">
-        <v>-0.02595996410899991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01372374066375246</v>
+      </c>
+      <c r="G61">
+        <v>-0.01971463896270926</v>
+      </c>
+      <c r="H61">
+        <v>0.01323124887385496</v>
+      </c>
+      <c r="I61">
+        <v>-0.06023997888249849</v>
+      </c>
+      <c r="J61">
+        <v>0.02143640479793033</v>
+      </c>
+      <c r="K61">
+        <v>0.036069090385049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002554789681213729</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01492877296216424</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003876275153186466</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02492926925381323</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0250702614189159</v>
+      </c>
+      <c r="G62">
+        <v>0.005286634907936125</v>
+      </c>
+      <c r="H62">
+        <v>0.01489503335286902</v>
+      </c>
+      <c r="I62">
+        <v>-0.01895088582076218</v>
+      </c>
+      <c r="J62">
+        <v>0.008331688101600844</v>
+      </c>
+      <c r="K62">
+        <v>-0.007794903668110831</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0001114578502484357</v>
+        <v>0.02672800037143474</v>
       </c>
       <c r="C63">
-        <v>0.05782866114213544</v>
+        <v>0.06296660641331746</v>
       </c>
       <c r="D63">
-        <v>0.03919955124992246</v>
+        <v>-0.05955538231337301</v>
       </c>
       <c r="E63">
-        <v>0.01394936512507367</v>
+        <v>0.007416275398656772</v>
       </c>
       <c r="F63">
-        <v>0.007512026107025969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.005733310342170285</v>
+      </c>
+      <c r="G63">
+        <v>-0.004623125332932671</v>
+      </c>
+      <c r="H63">
+        <v>-0.0174330792412525</v>
+      </c>
+      <c r="I63">
+        <v>-0.04975759731284218</v>
+      </c>
+      <c r="J63">
+        <v>0.04387697542682354</v>
+      </c>
+      <c r="K63">
+        <v>0.02145068312585527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002047010634325247</v>
+        <v>0.01834565303169641</v>
       </c>
       <c r="C64">
-        <v>0.09668434939603909</v>
+        <v>0.0937879895896274</v>
       </c>
       <c r="D64">
-        <v>0.0740374448309033</v>
+        <v>-0.03593420904754845</v>
       </c>
       <c r="E64">
-        <v>0.005544725790495226</v>
+        <v>0.0253844749588814</v>
       </c>
       <c r="F64">
-        <v>0.0256714926869721</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04979799945849406</v>
+      </c>
+      <c r="G64">
+        <v>0.007803408663823803</v>
+      </c>
+      <c r="H64">
+        <v>0.04106914235753568</v>
+      </c>
+      <c r="I64">
+        <v>-0.03197635279133385</v>
+      </c>
+      <c r="J64">
+        <v>0.03617082781145788</v>
+      </c>
+      <c r="K64">
+        <v>0.08986764761655835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01934855015605629</v>
+        <v>0.03316085773588106</v>
       </c>
       <c r="C65">
-        <v>0.0891530573358803</v>
+        <v>0.09322339611811165</v>
       </c>
       <c r="D65">
-        <v>0.03307607819267003</v>
+        <v>-0.02328700430199747</v>
       </c>
       <c r="E65">
-        <v>-0.0264745395453838</v>
+        <v>-0.01167949280239768</v>
       </c>
       <c r="F65">
-        <v>-0.01309136901448552</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.003807045382490339</v>
+      </c>
+      <c r="G65">
+        <v>-0.009348140180015155</v>
+      </c>
+      <c r="H65">
+        <v>0.08207603079836065</v>
+      </c>
+      <c r="I65">
+        <v>-0.002414874519384386</v>
+      </c>
+      <c r="J65">
+        <v>0.007298432554298552</v>
+      </c>
+      <c r="K65">
+        <v>0.07051340481448409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.001924503710663773</v>
+        <v>0.02275741726919038</v>
       </c>
       <c r="C66">
-        <v>0.1748815301665697</v>
+        <v>0.1715206714029381</v>
       </c>
       <c r="D66">
-        <v>0.04794866508620978</v>
+        <v>-0.05290203737481725</v>
       </c>
       <c r="E66">
-        <v>-0.02470628942155536</v>
+        <v>-0.009478790218375895</v>
       </c>
       <c r="F66">
-        <v>-0.01308928345740978</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.009440570947988601</v>
+      </c>
+      <c r="G66">
+        <v>0.01056828972688078</v>
+      </c>
+      <c r="H66">
+        <v>0.01634077809000956</v>
+      </c>
+      <c r="I66">
+        <v>-0.06570867113892466</v>
+      </c>
+      <c r="J66">
+        <v>0.01939365024455769</v>
+      </c>
+      <c r="K66">
+        <v>0.06860824588504698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03162840548338897</v>
+        <v>0.0201868578314289</v>
       </c>
       <c r="C67">
-        <v>0.02307081758025833</v>
+        <v>0.04932890569363271</v>
       </c>
       <c r="D67">
-        <v>0.05159417344428004</v>
+        <v>-0.03893327894997015</v>
       </c>
       <c r="E67">
-        <v>0.05359792949519776</v>
+        <v>-0.03422340562339693</v>
       </c>
       <c r="F67">
-        <v>-0.0195025699956535</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.003906561479301242</v>
+      </c>
+      <c r="G67">
+        <v>-0.03084884310089681</v>
+      </c>
+      <c r="H67">
+        <v>0.03301538085403973</v>
+      </c>
+      <c r="I67">
+        <v>-0.01890770422137846</v>
+      </c>
+      <c r="J67">
+        <v>0.06386385109270641</v>
+      </c>
+      <c r="K67">
+        <v>-0.04986212373619849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.295831924410667</v>
+        <v>0.2927166722619236</v>
       </c>
       <c r="C68">
-        <v>-0.02890810590525686</v>
+        <v>-0.07944381516591699</v>
       </c>
       <c r="D68">
-        <v>0.00493683248660454</v>
+        <v>0.0265712483071036</v>
       </c>
       <c r="E68">
-        <v>-0.02880329336566056</v>
+        <v>0.01700902768869308</v>
       </c>
       <c r="F68">
-        <v>0.002302668481078691</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02189649054831697</v>
+      </c>
+      <c r="G68">
+        <v>0.03504808526308463</v>
+      </c>
+      <c r="H68">
+        <v>-0.02647012349170456</v>
+      </c>
+      <c r="I68">
+        <v>-0.0108543097870986</v>
+      </c>
+      <c r="J68">
+        <v>0.0321103794818432</v>
+      </c>
+      <c r="K68">
+        <v>-0.03675116895117447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01002670064240034</v>
+        <v>0.01022389197243292</v>
       </c>
       <c r="C69">
-        <v>0.05952693799316271</v>
+        <v>0.04772344249660141</v>
       </c>
       <c r="D69">
-        <v>0.0501034695179154</v>
+        <v>-0.02715134955977943</v>
       </c>
       <c r="E69">
-        <v>0.03836389049931575</v>
+        <v>-0.00135156568519284</v>
       </c>
       <c r="F69">
-        <v>-0.00789856393271665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01181542820397258</v>
+      </c>
+      <c r="G69">
+        <v>-0.003848774153672697</v>
+      </c>
+      <c r="H69">
+        <v>0.01268459065977972</v>
+      </c>
+      <c r="I69">
+        <v>-0.006964199967113066</v>
+      </c>
+      <c r="J69">
+        <v>0.0357357587604954</v>
+      </c>
+      <c r="K69">
+        <v>-0.02446004438468034</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2848977341470107</v>
+        <v>0.2749511434354209</v>
       </c>
       <c r="C71">
-        <v>-0.04237364220280003</v>
+        <v>-0.08002837266154215</v>
       </c>
       <c r="D71">
-        <v>-0.0101378982116493</v>
+        <v>0.02238393133677298</v>
       </c>
       <c r="E71">
-        <v>-0.02925251713426797</v>
+        <v>-0.01019180113741273</v>
       </c>
       <c r="F71">
-        <v>0.03835432117835009</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04903994886050021</v>
+      </c>
+      <c r="G71">
+        <v>0.04486035213770691</v>
+      </c>
+      <c r="H71">
+        <v>-0.02863235696743572</v>
+      </c>
+      <c r="I71">
+        <v>-0.01074401517726219</v>
+      </c>
+      <c r="J71">
+        <v>0.05179189196238319</v>
+      </c>
+      <c r="K71">
+        <v>-0.1102587847231151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01454640741570283</v>
+        <v>0.05653394309190034</v>
       </c>
       <c r="C72">
-        <v>0.1475955811783675</v>
+        <v>0.1378701533721505</v>
       </c>
       <c r="D72">
-        <v>0.07075446798131889</v>
+        <v>-0.05409660023967957</v>
       </c>
       <c r="E72">
-        <v>0.01335169830425791</v>
+        <v>0.04852322747388135</v>
       </c>
       <c r="F72">
-        <v>0.03455674183212774</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02485271359182006</v>
+      </c>
+      <c r="G72">
+        <v>-0.02163044581425241</v>
+      </c>
+      <c r="H72">
+        <v>-0.01925605937124013</v>
+      </c>
+      <c r="I72">
+        <v>-0.03220214101069153</v>
+      </c>
+      <c r="J72">
+        <v>0.03742970297678185</v>
+      </c>
+      <c r="K72">
+        <v>0.1114349090828392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09846954104404013</v>
+        <v>0.158246905157286</v>
       </c>
       <c r="C73">
-        <v>0.1218464422666388</v>
+        <v>0.1992580555725065</v>
       </c>
       <c r="D73">
-        <v>0.1152077292398512</v>
+        <v>-0.07936454757477941</v>
       </c>
       <c r="E73">
-        <v>0.2086184114827846</v>
+        <v>0.06169509660247365</v>
       </c>
       <c r="F73">
-        <v>-0.2636352716903142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1453495705130519</v>
+      </c>
+      <c r="G73">
+        <v>-0.1941846584929215</v>
+      </c>
+      <c r="H73">
+        <v>0.4261428082520894</v>
+      </c>
+      <c r="I73">
+        <v>0.1796246596619336</v>
+      </c>
+      <c r="J73">
+        <v>-0.1344644708885759</v>
+      </c>
+      <c r="K73">
+        <v>-0.1364538596297673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01416782375292994</v>
+        <v>0.03865109790595065</v>
       </c>
       <c r="C74">
-        <v>0.08164015665389444</v>
+        <v>0.09735055767848626</v>
       </c>
       <c r="D74">
-        <v>0.06923339791637788</v>
+        <v>-0.04456896711477854</v>
       </c>
       <c r="E74">
-        <v>0.07025369854987562</v>
+        <v>0.023325931120137</v>
       </c>
       <c r="F74">
-        <v>-0.02674971650773496</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.005446240975509393</v>
+      </c>
+      <c r="G74">
+        <v>-0.03195356648748175</v>
+      </c>
+      <c r="H74">
+        <v>-0.05357878217246681</v>
+      </c>
+      <c r="I74">
+        <v>0.02393528107579438</v>
+      </c>
+      <c r="J74">
+        <v>0.02492708237935469</v>
+      </c>
+      <c r="K74">
+        <v>0.01537419238530555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.0340458507321211</v>
+        <v>0.06495632633860214</v>
       </c>
       <c r="C75">
-        <v>0.1398664939236186</v>
+        <v>0.1625494611197786</v>
       </c>
       <c r="D75">
-        <v>0.06359596433791868</v>
+        <v>-0.0863784245825108</v>
       </c>
       <c r="E75">
-        <v>0.1562784980527181</v>
+        <v>0.04269495185638798</v>
       </c>
       <c r="F75">
-        <v>-0.009306481137198274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.02793763418049096</v>
+      </c>
+      <c r="G75">
+        <v>-0.1034303340016844</v>
+      </c>
+      <c r="H75">
+        <v>-0.2144703327862736</v>
+      </c>
+      <c r="I75">
+        <v>-0.001620574524398682</v>
+      </c>
+      <c r="J75">
+        <v>-0.04886604162165215</v>
+      </c>
+      <c r="K75">
+        <v>-0.1369116077105803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.007829777894893251</v>
+        <v>0.04601119514665156</v>
       </c>
       <c r="C76">
-        <v>0.1022394852542032</v>
+        <v>0.1245160983781049</v>
       </c>
       <c r="D76">
-        <v>0.06291049740352359</v>
+        <v>-0.0752297847852138</v>
       </c>
       <c r="E76">
-        <v>0.08917329846888103</v>
+        <v>0.01894987103387235</v>
       </c>
       <c r="F76">
-        <v>-0.03240574705187994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.05657206007819682</v>
+      </c>
+      <c r="G76">
+        <v>-0.05967684940182294</v>
+      </c>
+      <c r="H76">
+        <v>-0.07609784824699163</v>
+      </c>
+      <c r="I76">
+        <v>-0.004522865372209671</v>
+      </c>
+      <c r="J76">
+        <v>-0.04613063627871458</v>
+      </c>
+      <c r="K76">
+        <v>0.02516474081027047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1006864162818085</v>
+        <v>0.05496173522251484</v>
       </c>
       <c r="C77">
-        <v>0.3592534262318138</v>
+        <v>0.4063212496165237</v>
       </c>
       <c r="D77">
-        <v>-0.8534382228707991</v>
+        <v>0.8964820966235646</v>
       </c>
       <c r="E77">
-        <v>0.2661714044087862</v>
+        <v>0.01961733711293606</v>
       </c>
       <c r="F77">
-        <v>-0.07039307650963081</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.008230074251367738</v>
+      </c>
+      <c r="G77">
+        <v>-0.06700386963475616</v>
+      </c>
+      <c r="H77">
+        <v>-0.05430622300817428</v>
+      </c>
+      <c r="I77">
+        <v>-0.08292117809904351</v>
+      </c>
+      <c r="J77">
+        <v>-0.0003299324038949667</v>
+      </c>
+      <c r="K77">
+        <v>-0.02286860357426658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02625008460719982</v>
+        <v>0.03878685334440149</v>
       </c>
       <c r="C78">
-        <v>0.1215102415886179</v>
+        <v>0.1121102255321266</v>
       </c>
       <c r="D78">
-        <v>0.1593515436209764</v>
+        <v>-0.09111764443860916</v>
       </c>
       <c r="E78">
-        <v>-0.06709850823362745</v>
+        <v>-0.03573553686996842</v>
       </c>
       <c r="F78">
-        <v>-0.093466670855442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04054301452890118</v>
+      </c>
+      <c r="G78">
+        <v>0.01852839497076982</v>
+      </c>
+      <c r="H78">
+        <v>-0.1098074981134655</v>
+      </c>
+      <c r="I78">
+        <v>0.02195174657533435</v>
+      </c>
+      <c r="J78">
+        <v>0.05982289848279622</v>
+      </c>
+      <c r="K78">
+        <v>0.0514632190198652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02239230475808434</v>
+        <v>0.05824126812656256</v>
       </c>
       <c r="C79">
-        <v>0.1547364021958252</v>
+        <v>0.1394485613159212</v>
       </c>
       <c r="D79">
-        <v>0.1077923338354655</v>
+        <v>-0.06903598450600106</v>
       </c>
       <c r="E79">
-        <v>0.1165196221738586</v>
+        <v>0.02181116312664428</v>
       </c>
       <c r="F79">
-        <v>-0.04882569278904687</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.05520073964092796</v>
+      </c>
+      <c r="G79">
+        <v>-0.03706019841028348</v>
+      </c>
+      <c r="H79">
+        <v>-0.2619698747705337</v>
+      </c>
+      <c r="I79">
+        <v>0.0446049102951523</v>
+      </c>
+      <c r="J79">
+        <v>0.02154076693580146</v>
+      </c>
+      <c r="K79">
+        <v>-0.06175419440870283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.005085893700749379</v>
+        <v>0.01980403432411337</v>
       </c>
       <c r="C80">
-        <v>0.06304784687710181</v>
+        <v>0.04618975297256062</v>
       </c>
       <c r="D80">
-        <v>0.03054616438369191</v>
+        <v>-0.03641793937503129</v>
       </c>
       <c r="E80">
-        <v>-0.04114097834833192</v>
+        <v>-0.01242981406686314</v>
       </c>
       <c r="F80">
-        <v>-0.009184538038366472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02344543197691963</v>
+      </c>
+      <c r="G80">
+        <v>0.0633609592526031</v>
+      </c>
+      <c r="H80">
+        <v>0.0842940458997989</v>
+      </c>
+      <c r="I80">
+        <v>0.01017329585116303</v>
+      </c>
+      <c r="J80">
+        <v>-0.01703173987833542</v>
+      </c>
+      <c r="K80">
+        <v>-0.01861969798463169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0003170208421581552</v>
+        <v>0.0169865601265898</v>
       </c>
       <c r="C81">
-        <v>0.07990726439653364</v>
+        <v>0.09803626326214333</v>
       </c>
       <c r="D81">
-        <v>0.05838356717364392</v>
+        <v>-0.057017754354255</v>
       </c>
       <c r="E81">
-        <v>0.09526605028318558</v>
+        <v>0.01903346082786959</v>
       </c>
       <c r="F81">
-        <v>-0.02254787602141982</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03668859709839629</v>
+      </c>
+      <c r="G81">
+        <v>-0.022990253056043</v>
+      </c>
+      <c r="H81">
+        <v>-0.1155552641785531</v>
+      </c>
+      <c r="I81">
+        <v>-0.0002601337458363345</v>
+      </c>
+      <c r="J81">
+        <v>0.03992739178005913</v>
+      </c>
+      <c r="K81">
+        <v>-0.04423347748105781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01826560251215</v>
+        <v>0.04805187744151714</v>
       </c>
       <c r="C82">
-        <v>0.07794373813636245</v>
+        <v>0.106896938602018</v>
       </c>
       <c r="D82">
-        <v>0.06794986815269828</v>
+        <v>-0.06677482382647505</v>
       </c>
       <c r="E82">
-        <v>0.09887370220407327</v>
+        <v>0.01354900952841308</v>
       </c>
       <c r="F82">
-        <v>-0.03887963306491123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0622507772857912</v>
+      </c>
+      <c r="G82">
+        <v>-0.04596340962753621</v>
+      </c>
+      <c r="H82">
+        <v>-0.08485014464142854</v>
+      </c>
+      <c r="I82">
+        <v>-0.01537811769429082</v>
+      </c>
+      <c r="J82">
+        <v>-0.02755165319356959</v>
+      </c>
+      <c r="K82">
+        <v>-0.00723015418798349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.01329222067115538</v>
+        <v>0.0006762551502499254</v>
       </c>
       <c r="C83">
-        <v>0.008594416111644809</v>
+        <v>-0.01899442958730406</v>
       </c>
       <c r="D83">
-        <v>-0.1199051708827098</v>
+        <v>0.05341401026435326</v>
       </c>
       <c r="E83">
-        <v>-0.5164152048497014</v>
+        <v>0.1023597793254359</v>
       </c>
       <c r="F83">
-        <v>-0.74741907657296</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.6955465793637505</v>
+      </c>
+      <c r="G83">
+        <v>0.6572525272123579</v>
+      </c>
+      <c r="H83">
+        <v>0.001244821961942875</v>
+      </c>
+      <c r="I83">
+        <v>-0.01346011824443307</v>
+      </c>
+      <c r="J83">
+        <v>-0.1091667003722597</v>
+      </c>
+      <c r="K83">
+        <v>0.05513124289832488</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.004271180439224475</v>
+        <v>0.01489273388685219</v>
       </c>
       <c r="C84">
-        <v>0.09403160148654942</v>
+        <v>0.06243668913398218</v>
       </c>
       <c r="D84">
-        <v>0.02518864839092876</v>
+        <v>-0.08504700918110354</v>
       </c>
       <c r="E84">
-        <v>-0.07834226586416985</v>
+        <v>-0.3016920436089129</v>
       </c>
       <c r="F84">
-        <v>0.1539740861249545</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.09177498438916597</v>
+      </c>
+      <c r="G84">
+        <v>0.07347289442376406</v>
+      </c>
+      <c r="H84">
+        <v>0.05115135718191953</v>
+      </c>
+      <c r="I84">
+        <v>-0.6700521471906828</v>
+      </c>
+      <c r="J84">
+        <v>-0.5769062249105946</v>
+      </c>
+      <c r="K84">
+        <v>-0.1573678753005429</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.001742339558176828</v>
+        <v>0.03139744618908839</v>
       </c>
       <c r="C85">
-        <v>0.1024303863212832</v>
+        <v>0.1138495642473149</v>
       </c>
       <c r="D85">
-        <v>0.06742705432684398</v>
+        <v>-0.08229702133661501</v>
       </c>
       <c r="E85">
-        <v>0.1012728481699755</v>
+        <v>0.02619438342585172</v>
       </c>
       <c r="F85">
-        <v>-0.04068532453117261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08964554988452487</v>
+      </c>
+      <c r="G85">
+        <v>-0.09229665362972729</v>
+      </c>
+      <c r="H85">
+        <v>-0.2232249518031721</v>
+      </c>
+      <c r="I85">
+        <v>0.02390436708754731</v>
+      </c>
+      <c r="J85">
+        <v>-0.05722556493356058</v>
+      </c>
+      <c r="K85">
+        <v>-0.0715692510128678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01423831904511853</v>
+        <v>0.01512016447793686</v>
       </c>
       <c r="C86">
-        <v>0.08285326851735983</v>
+        <v>0.07856864552620375</v>
       </c>
       <c r="D86">
-        <v>-0.004885308658863434</v>
+        <v>-0.03254022010049927</v>
       </c>
       <c r="E86">
-        <v>-0.02549118807632058</v>
+        <v>-0.05863159940724193</v>
       </c>
       <c r="F86">
-        <v>0.04521287648426236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03612757274326245</v>
+      </c>
+      <c r="G86">
+        <v>0.07144561492504702</v>
+      </c>
+      <c r="H86">
+        <v>-0.04415701065139783</v>
+      </c>
+      <c r="I86">
+        <v>0.1035594653040145</v>
+      </c>
+      <c r="J86">
+        <v>0.06666863530815018</v>
+      </c>
+      <c r="K86">
+        <v>-0.12513488331101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01615922941318333</v>
+        <v>0.02674081684577431</v>
       </c>
       <c r="C87">
-        <v>0.1649793715696702</v>
+        <v>0.1189779763261184</v>
       </c>
       <c r="D87">
-        <v>0.04384559646341554</v>
+        <v>-0.02060183100429104</v>
       </c>
       <c r="E87">
-        <v>-0.0977337165824209</v>
+        <v>0.02881146493838989</v>
       </c>
       <c r="F87">
-        <v>0.07596032077787</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03325689750462574</v>
+      </c>
+      <c r="G87">
+        <v>0.0351628425717025</v>
+      </c>
+      <c r="H87">
+        <v>-0.01502556160922645</v>
+      </c>
+      <c r="I87">
+        <v>-0.03844917002501842</v>
+      </c>
+      <c r="J87">
+        <v>0.01375484620033015</v>
+      </c>
+      <c r="K87">
+        <v>0.09120444107511587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.006841636472442623</v>
+        <v>0.03907110814182791</v>
       </c>
       <c r="C88">
-        <v>0.03363006436781724</v>
+        <v>0.05870457975434949</v>
       </c>
       <c r="D88">
-        <v>0.04060851714658614</v>
+        <v>-0.03898008908673095</v>
       </c>
       <c r="E88">
-        <v>0.05448421660451416</v>
+        <v>0.02031278472765596</v>
       </c>
       <c r="F88">
-        <v>-0.01447772327502832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.002259906726773157</v>
+      </c>
+      <c r="G88">
+        <v>-0.02173461969074993</v>
+      </c>
+      <c r="H88">
+        <v>0.007626155442070115</v>
+      </c>
+      <c r="I88">
+        <v>0.01042390518134143</v>
+      </c>
+      <c r="J88">
+        <v>0.01492771834789442</v>
+      </c>
+      <c r="K88">
+        <v>0.01965774308284387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4115052801798176</v>
+        <v>0.389030346564201</v>
       </c>
       <c r="C89">
-        <v>-0.07921260874132388</v>
+        <v>-0.1255519375246392</v>
       </c>
       <c r="D89">
-        <v>0.0848658200922397</v>
+        <v>0.03717408497713561</v>
       </c>
       <c r="E89">
-        <v>-0.06955993683677911</v>
+        <v>0.008208554611263295</v>
       </c>
       <c r="F89">
-        <v>0.06460175563954169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0645325863340125</v>
+      </c>
+      <c r="G89">
+        <v>0.007892280871928115</v>
+      </c>
+      <c r="H89">
+        <v>0.008522698065028507</v>
+      </c>
+      <c r="I89">
+        <v>-0.0717425244669582</v>
+      </c>
+      <c r="J89">
+        <v>-0.03729821023373173</v>
+      </c>
+      <c r="K89">
+        <v>0.7334274406995398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.307424547971847</v>
+        <v>0.3154835739238104</v>
       </c>
       <c r="C90">
-        <v>-0.02326318051536386</v>
+        <v>-0.08072091063133334</v>
       </c>
       <c r="D90">
-        <v>0.003277338612594951</v>
+        <v>0.02037998607928321</v>
       </c>
       <c r="E90">
-        <v>-0.04843719580394751</v>
+        <v>-0.007603760220689354</v>
       </c>
       <c r="F90">
-        <v>-0.02391407793756439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01539569067319183</v>
+      </c>
+      <c r="G90">
+        <v>0.02931613418832717</v>
+      </c>
+      <c r="H90">
+        <v>-0.002718745347031383</v>
+      </c>
+      <c r="I90">
+        <v>-0.01090444978388454</v>
+      </c>
+      <c r="J90">
+        <v>-0.005336347746036154</v>
+      </c>
+      <c r="K90">
+        <v>-0.1033488043798956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02522396685313172</v>
+        <v>0.05636078689556141</v>
       </c>
       <c r="C91">
-        <v>0.07647500738551806</v>
+        <v>0.07740801216080018</v>
       </c>
       <c r="D91">
-        <v>0.0605079122443028</v>
+        <v>-0.05318429595878191</v>
       </c>
       <c r="E91">
-        <v>0.05118240166561493</v>
+        <v>0.04072350032029816</v>
       </c>
       <c r="F91">
-        <v>-0.05634256920694738</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.05774321909564134</v>
+      </c>
+      <c r="G91">
+        <v>-0.006008089964969713</v>
+      </c>
+      <c r="H91">
+        <v>-0.08060821010705024</v>
+      </c>
+      <c r="I91">
+        <v>0.02056965505462802</v>
+      </c>
+      <c r="J91">
+        <v>-0.03526718176478924</v>
+      </c>
+      <c r="K91">
+        <v>-0.005208681232668359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3768586520122278</v>
+        <v>0.3501096548704599</v>
       </c>
       <c r="C92">
-        <v>-0.06549540669738012</v>
+        <v>-0.1255878169353497</v>
       </c>
       <c r="D92">
-        <v>-0.01458002135720689</v>
+        <v>0.05569752565691422</v>
       </c>
       <c r="E92">
-        <v>0.00312724490850829</v>
+        <v>-8.974706402590207e-05</v>
       </c>
       <c r="F92">
-        <v>0.1272058752042683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06557411450718841</v>
+      </c>
+      <c r="G92">
+        <v>0.01262237073625032</v>
+      </c>
+      <c r="H92">
+        <v>-0.01644394045129823</v>
+      </c>
+      <c r="I92">
+        <v>-0.02635509981235852</v>
+      </c>
+      <c r="J92">
+        <v>0.06493304881496205</v>
+      </c>
+      <c r="K92">
+        <v>-0.1382304166465988</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3076268010859002</v>
+        <v>0.3069779557011406</v>
       </c>
       <c r="C93">
-        <v>-0.07804425971247327</v>
+        <v>-0.1249633261318145</v>
       </c>
       <c r="D93">
-        <v>0.007309496108799561</v>
+        <v>0.008632796529348787</v>
       </c>
       <c r="E93">
-        <v>-0.07879442672028976</v>
+        <v>-0.0274376133580423</v>
       </c>
       <c r="F93">
-        <v>0.04343043971706132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.02991472244957223</v>
+      </c>
+      <c r="G93">
+        <v>0.0365653418189477</v>
+      </c>
+      <c r="H93">
+        <v>-0.04048144981334943</v>
+      </c>
+      <c r="I93">
+        <v>0.0009305212964200088</v>
+      </c>
+      <c r="J93">
+        <v>0.02582944812233124</v>
+      </c>
+      <c r="K93">
+        <v>-0.1246458240318473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02511287164402059</v>
+        <v>0.08308973826901737</v>
       </c>
       <c r="C94">
-        <v>0.1867121301970271</v>
+        <v>0.1616428557369151</v>
       </c>
       <c r="D94">
-        <v>0.1150205486239698</v>
+        <v>-0.114449387324838</v>
       </c>
       <c r="E94">
-        <v>0.1823902933468654</v>
+        <v>0.04483471981295456</v>
       </c>
       <c r="F94">
-        <v>0.01036441657168324</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.09931399974341744</v>
+      </c>
+      <c r="G94">
+        <v>-0.09093934180155654</v>
+      </c>
+      <c r="H94">
+        <v>-0.4961893094617136</v>
+      </c>
+      <c r="I94">
+        <v>0.1610762627451138</v>
+      </c>
+      <c r="J94">
+        <v>-0.2706701295376669</v>
+      </c>
+      <c r="K94">
+        <v>0.0463427270225401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02517719839489498</v>
+        <v>0.04328845055669643</v>
       </c>
       <c r="C95">
-        <v>0.1232998265822256</v>
+        <v>0.1316567777195577</v>
       </c>
       <c r="D95">
-        <v>0.05888268652234654</v>
+        <v>-0.06557296333326328</v>
       </c>
       <c r="E95">
-        <v>0.07334146060112531</v>
+        <v>0.005369654089533548</v>
       </c>
       <c r="F95">
-        <v>-0.07783371000312302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02688847665366049</v>
+      </c>
+      <c r="G95">
+        <v>-0.08409030277761154</v>
+      </c>
+      <c r="H95">
+        <v>0.02644926206963841</v>
+      </c>
+      <c r="I95">
+        <v>-0.1133219904014246</v>
+      </c>
+      <c r="J95">
+        <v>-0.0362401305514956</v>
+      </c>
+      <c r="K95">
+        <v>0.1834282827684927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0009792564806430984</v>
+        <v>0.0228008134488677</v>
       </c>
       <c r="C97">
-        <v>0.001270117066234071</v>
+        <v>0.02621204121415134</v>
       </c>
       <c r="D97">
-        <v>-0.0004041616112051401</v>
+        <v>-0.002191391114420136</v>
       </c>
       <c r="E97">
-        <v>0.004006455587483318</v>
+        <v>-0.04939319532447236</v>
       </c>
       <c r="F97">
-        <v>0.001506611902717957</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.0006184338483212056</v>
+      </c>
+      <c r="G97">
+        <v>-0.01747405120509892</v>
+      </c>
+      <c r="H97">
+        <v>0.01663152755465289</v>
+      </c>
+      <c r="I97">
+        <v>0.01418223282452597</v>
+      </c>
+      <c r="J97">
+        <v>0.03982804151217727</v>
+      </c>
+      <c r="K97">
+        <v>0.07203995864469552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09358300441204645</v>
+        <v>0.1393521735023545</v>
       </c>
       <c r="C98">
-        <v>0.1539606668545819</v>
+        <v>0.1599374488090036</v>
       </c>
       <c r="D98">
-        <v>0.1366277575424778</v>
+        <v>-0.08707363326099521</v>
       </c>
       <c r="E98">
-        <v>0.1410731935715827</v>
+        <v>0.09017616122906844</v>
       </c>
       <c r="F98">
-        <v>-0.1749648810101351</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1494193801365281</v>
+      </c>
+      <c r="G98">
+        <v>-0.1663371641190505</v>
+      </c>
+      <c r="H98">
+        <v>0.3516696167965173</v>
+      </c>
+      <c r="I98">
+        <v>0.1697059161269286</v>
+      </c>
+      <c r="J98">
+        <v>-0.1669827731164144</v>
+      </c>
+      <c r="K98">
+        <v>-0.1372383842635505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03262256116770772</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.06818621710816752</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01190019337116393</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9030404561378673</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.2229521995808307</v>
+      </c>
+      <c r="G99">
+        <v>-0.07768199640245001</v>
+      </c>
+      <c r="H99">
+        <v>0.02345887596862161</v>
+      </c>
+      <c r="I99">
+        <v>0.246693882660905</v>
+      </c>
+      <c r="J99">
+        <v>0.110129659914207</v>
+      </c>
+      <c r="K99">
+        <v>0.07984732467668264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.006175304230395329</v>
+        <v>0.01794596954808272</v>
       </c>
       <c r="C101">
-        <v>0.08345364070406142</v>
+        <v>0.0812153940293875</v>
       </c>
       <c r="D101">
-        <v>0.05189460153769883</v>
+        <v>-0.04827124178729446</v>
       </c>
       <c r="E101">
-        <v>-0.01019430525548299</v>
+        <v>0.01737356316941905</v>
       </c>
       <c r="F101">
-        <v>-0.01972409431354955</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02661007565298264</v>
+      </c>
+      <c r="G101">
+        <v>0.02922325315247069</v>
+      </c>
+      <c r="H101">
+        <v>0.09280987535154714</v>
+      </c>
+      <c r="I101">
+        <v>-0.1998706522218947</v>
+      </c>
+      <c r="J101">
+        <v>0.2093758033528737</v>
+      </c>
+      <c r="K101">
+        <v>0.02365254041960576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.00407592563094482</v>
+        <v>0.002141111745106696</v>
       </c>
       <c r="C102">
-        <v>0.01322896131006874</v>
+        <v>0.005357671652455737</v>
       </c>
       <c r="D102">
-        <v>-0.003687909836272906</v>
+        <v>0.00326179385522465</v>
       </c>
       <c r="E102">
-        <v>0.01933272291134427</v>
+        <v>0.002713567556010661</v>
       </c>
       <c r="F102">
-        <v>-0.01270815659101221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.003725259539337241</v>
+      </c>
+      <c r="G102">
+        <v>-0.002941915963334072</v>
+      </c>
+      <c r="H102">
+        <v>-0.004751695677233065</v>
+      </c>
+      <c r="I102">
+        <v>-0.004334670009656946</v>
+      </c>
+      <c r="J102">
+        <v>0.0078088989919673</v>
+      </c>
+      <c r="K102">
+        <v>0.01258891780439261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
